--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E8" s="3">
         <v>605600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>187300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>259400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>248400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>571300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>169500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>526100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>239500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>233700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>554600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E9" s="3">
         <v>336500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>154200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>150900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>316500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>101000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>145100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>290800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>141200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>297600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E10" s="3">
         <v>269100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>76200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>105200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>254800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>235300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>98300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>257000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
         <v>11700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10200</v>
       </c>
       <c r="K12" s="3">
         <v>10200</v>
       </c>
       <c r="L12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M12" s="3">
         <v>9200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,11 +1020,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1012,17 +1032,17 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,46 +1068,49 @@
         <v>7800</v>
       </c>
       <c r="E15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F15" s="3">
         <v>7600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7800</v>
       </c>
       <c r="J15" s="3">
         <v>7800</v>
       </c>
       <c r="K15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E17" s="3">
         <v>506100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>207900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>271600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>263000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>476600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>192500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>241300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>251000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>441400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>177000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>250300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>250000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>458000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>99500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>94700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>107400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1333,122 +1373,131 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
       </c>
       <c r="O22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>99600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>92000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>83300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>74200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>68600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>74200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>68600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>62900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,17 +1719,17 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>12200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>74200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>68600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>70700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>62900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>74200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>68600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>70700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>62900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E41" s="3">
         <v>295600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>172900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>206400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>257700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>114000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,231 +2238,246 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E43" s="3">
         <v>44600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E44" s="3">
         <v>68000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>74400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>64000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>160700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>148400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>63700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>93400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>25600</v>
       </c>
       <c r="F45" s="3">
         <v>25600</v>
       </c>
       <c r="G45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>353700</v>
+      </c>
+      <c r="E46" s="3">
         <v>431600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>268400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>303200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>320500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>390200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>244400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>273000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>282300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>359600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>220200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>257400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>251200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2200</v>
       </c>
       <c r="H47" s="3">
         <v>2200</v>
       </c>
       <c r="I47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3">
         <v>2300</v>
       </c>
       <c r="K47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L47" s="3">
         <v>2400</v>
       </c>
       <c r="M47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N47" s="3">
         <v>2700</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>236700</v>
+      </c>
+      <c r="E48" s="3">
         <v>235500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>239300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>166700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>158200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>160200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>160400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>163300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>157500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>161400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>168700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E49" s="3">
         <v>141400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>141700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>122200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>122400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>122500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>122400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>123100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>123300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>123700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>124200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>156000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E52" s="3">
         <v>15100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>748600</v>
+      </c>
+      <c r="E54" s="3">
         <v>826200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>665000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>606400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>614900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>685500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>540600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>570900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>570400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>648800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>512300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>552500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>539800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>619000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E57" s="3">
         <v>61800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,228 +2946,243 @@
         <v>5000</v>
       </c>
       <c r="G58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="3">
         <v>12200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E59" s="3">
         <v>159900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>96800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>103000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>140100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>123500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>92300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>127000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E60" s="3">
         <v>226700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>140600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>114900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>124800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>187400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>118300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>182300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E61" s="3">
         <v>89700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>90800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>92000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>83600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>87000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>92300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>94900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>97500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>99500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>101400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>103300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>105300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E62" s="3">
         <v>108900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>109400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>360600</v>
+      </c>
+      <c r="E66" s="3">
         <v>425300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>335600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>263700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>266000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>329400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>244600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>256000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>248000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>318000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>246500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>270200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>264400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>332200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,46 +3598,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E72" s="3">
         <v>167400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>93300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>108500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>125100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>57300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>73400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>81700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>90100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32600</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E76" s="3">
         <v>400900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>342700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>348900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>356100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>296000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>314900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>322300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>265800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>282200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>275400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>286800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>74200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>68600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>70700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>62900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,46 +4035,49 @@
         <v>7800</v>
       </c>
       <c r="E83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7800</v>
       </c>
       <c r="J83" s="3">
         <v>7800</v>
       </c>
       <c r="K83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E89" s="3">
         <v>274900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-112800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>249000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-109400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-49600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>236500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-122300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-48800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>244800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>97100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E102" s="3">
         <v>261400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-138700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>230700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-120200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>223500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-140600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>93000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>107200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,258 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>418000</v>
+      </c>
+      <c r="F8" s="3">
         <v>278800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>605600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>187300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>259400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>248400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>571300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>169500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>229900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>238500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>526100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>157300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>239500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>233700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>554600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>168300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>248500</v>
+      </c>
+      <c r="F9" s="3">
         <v>171300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>336500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>111100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>154200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>150900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>316500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>101000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>136900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>145100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>290800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>90100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>141200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>140100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>297600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>169500</v>
+      </c>
+      <c r="F10" s="3">
         <v>107500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>269100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>76200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>105200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>97500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>254800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>68500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>93000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>93400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>235300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>67200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>98300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>93600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>257000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +935,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F12" s="3">
         <v>11900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>11700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1043,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,32 +1063,32 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>200</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>-200</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1059,58 +1099,70 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>8500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>9200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1178,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>405600</v>
+      </c>
+      <c r="F17" s="3">
         <v>289700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>506100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>207900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>271600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>263000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>476600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>192500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>241300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>251000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>441400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>177000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>250300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>250000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>458000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>99500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>94700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-23000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>84700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>96600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1312,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>107400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-13700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>93200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>11800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>105700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1376,128 +1456,146 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>99600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-21300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>92000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>83300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>94400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>25400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-6100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>23400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>24800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>31500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1644,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>74200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>68600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>58500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>62900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>74200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>68600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>58500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>62900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,20 +1844,20 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>12200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1980,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>74200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>68600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>70700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>62900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2148,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>74200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>68600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>70700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>62900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2313,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>240500</v>
+      </c>
+      <c r="F41" s="3">
         <v>232100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>295600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>34200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>172900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>206400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>257700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>27000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>147200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>173100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>232600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>149700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>56800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>114000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,249 +2421,279 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F43" s="3">
         <v>26200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>44600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>36100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>19200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>48400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>30700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>44400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>35700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>21500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>57900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>97800</v>
+      </c>
+      <c r="F44" s="3">
         <v>74000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>68000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>172500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>92400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>74400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>64000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>160700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>88800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>68900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>60600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>148400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>75900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>63700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>93400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F45" s="3">
         <v>21300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>25600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>25600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>26000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>24000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>17700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>109200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>19600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>378600</v>
+      </c>
+      <c r="F46" s="3">
         <v>353700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>431600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>268400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>303200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>320500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>390200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>244400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>273000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>282300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>359600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>220200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>257400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>251200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>284900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2200</v>
       </c>
       <c r="I47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2700</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -2491,108 +2701,126 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>235800</v>
+      </c>
+      <c r="F48" s="3">
         <v>236700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>235500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>239300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>166700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>158200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>160200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>160400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>163300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>153700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>154600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>157500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>161400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>154700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>168700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>349600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>141000</v>
+      </c>
+      <c r="F49" s="3">
         <v>141200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>141400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>141700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>122200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>122400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>122500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>122200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>122400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>122700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>123100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>123300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>123700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>124200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>156000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2925,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F52" s="3">
         <v>14300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>15100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>13400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3037,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>934700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>774400</v>
+      </c>
+      <c r="F54" s="3">
         <v>748600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>826200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>665000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>606400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>614900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>685500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>540600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>570900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>570400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>648800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>512300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>552500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>539800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>619000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,63 +3141,71 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F57" s="3">
         <v>37300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>61800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>37100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>25700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>51900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>55300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>27800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>49500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>37500</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
@@ -2949,240 +3217,270 @@
         <v>5000</v>
       </c>
       <c r="H58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J58" s="3">
         <v>12200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>11500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F59" s="3">
         <v>126300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>159900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>93300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>96800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>103000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>140100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>70900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>73300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>91900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>123500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>67000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>90200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>92300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>127000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>180300</v>
+      </c>
+      <c r="F60" s="3">
         <v>168700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>226700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>135400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>127500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>140600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>203500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>114900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>124800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>120300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>187400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>102400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>125200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>118300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>182300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>87600</v>
+      </c>
+      <c r="F61" s="3">
         <v>88600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>89700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>90800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>92000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>83600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>87000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>89600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>92300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>94900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>97500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>99500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>101400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>103300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>105300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F62" s="3">
         <v>103300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>108900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>109400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>44300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>41800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>38900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>40100</v>
       </c>
       <c r="K62" s="3">
         <v>38900</v>
       </c>
       <c r="L62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="N62" s="3">
         <v>32800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>44700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>43700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>42900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>44600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3641,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>543100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>374700</v>
+      </c>
+      <c r="F66" s="3">
         <v>360600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>425300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>335600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>263700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>266000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>329400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>244600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>256000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>248000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>318000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>246500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>270200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>264400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>332200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3943,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>167500</v>
+      </c>
+      <c r="F72" s="3">
         <v>157700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>167400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>93300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>108500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>116800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>125100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>57300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>73400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>81700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>90100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>32600</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4167,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>399800</v>
+      </c>
+      <c r="F76" s="3">
         <v>388000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>329400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>342700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>348900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>356100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>296000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>314900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>322300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>330700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>265800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>282200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>275400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>286800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4279,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>74200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>68600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>70700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>62900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4422,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4754,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-44800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>274900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-112800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-42600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>249000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-109400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-49600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>236500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-122300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>244800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4836,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-15700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-14900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-8600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +5000,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-258200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-12500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>97100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5082,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5134,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5302,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-129000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5414,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-229500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-63400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>261400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-138700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-33500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-51300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>230700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-120200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-25800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-59500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>223500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-140600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>93000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>107200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>877300</v>
+      </c>
+      <c r="E8" s="3">
         <v>283800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>418000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>278800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>605600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>259400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>248400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>571300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>526100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>157300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>239500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>233700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>554600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E9" s="3">
         <v>168300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>248500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>171300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>336500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>154200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>150900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>316500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>145100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>90100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>141200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>297600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E10" s="3">
         <v>115500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>169500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>269100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>105200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>254800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>235300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>98300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>257000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>10200</v>
       </c>
       <c r="N12" s="3">
         <v>10200</v>
       </c>
       <c r="O12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P12" s="3">
         <v>9200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,11 +1088,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1081,17 +1100,17 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1105,64 +1124,70 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E15" s="3">
         <v>8800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7800</v>
       </c>
       <c r="G15" s="3">
         <v>7800</v>
       </c>
       <c r="H15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I15" s="3">
         <v>7600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7800</v>
       </c>
       <c r="M15" s="3">
         <v>7800</v>
       </c>
       <c r="N15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O15" s="3">
         <v>7900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>729700</v>
+      </c>
+      <c r="E17" s="3">
         <v>297200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>405600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>289700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>506100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>207900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>271600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>263000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>476600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>241300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>251000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>441400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>177000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>250300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>250000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>458000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>99500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>107400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,140 +1501,149 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
       </c>
       <c r="Q22" s="3">
         <v>1000</v>
       </c>
       <c r="R22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>74200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>58500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>74200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>62900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1850,17 +1910,17 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>12200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>74200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>68600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>62900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>74200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>68600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>62900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>240500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>232100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>295600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>172900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>206400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>257700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>173100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>149700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>114000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,276 +2516,291 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E43" s="3">
         <v>32000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E44" s="3">
         <v>192600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>97800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>74000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>68000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>172500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>92400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>74400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>160700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>68900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>60600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>148400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>75900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>63700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>93400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E45" s="3">
         <v>39300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>25600</v>
       </c>
       <c r="I45" s="3">
         <v>25600</v>
       </c>
       <c r="J45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>563400</v>
+      </c>
+      <c r="E46" s="3">
         <v>274900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>378600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>353700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>431600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>268400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>303200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>320500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>390200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>244400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>273000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>282300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>359600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>220200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>257400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>251200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2800</v>
       </c>
       <c r="F47" s="3">
         <v>2800</v>
       </c>
       <c r="G47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2200</v>
       </c>
       <c r="K47" s="3">
         <v>2200</v>
       </c>
       <c r="L47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="M47" s="3">
         <v>2300</v>
       </c>
       <c r="N47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O47" s="3">
         <v>2400</v>
       </c>
       <c r="P47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
@@ -2707,120 +2811,129 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E48" s="3">
         <v>288400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>236700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>235500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>239300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>166700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>160200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>160400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>163300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>153700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>157500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>161400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>154700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>168700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E49" s="3">
         <v>349600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>141000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>141200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>141400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>141700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>122200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>122400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>123100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>123300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>123700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>124200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>156000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E52" s="3">
         <v>18600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="E54" s="3">
         <v>934700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>774400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>748600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>826200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>665000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>606400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>614900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>685500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>540600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>570900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>570400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>648800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>512300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>552500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>539800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>619000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,72 +3272,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>37500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5000</v>
       </c>
       <c r="F58" s="3">
         <v>5000</v>
@@ -3223,264 +3356,279 @@
         <v>5000</v>
       </c>
       <c r="J58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K58" s="3">
         <v>12200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>296800</v>
+      </c>
+      <c r="E59" s="3">
         <v>150500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>150000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>126300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>159900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>123500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>67000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>90200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>92300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>127000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>416700</v>
+      </c>
+      <c r="E60" s="3">
         <v>233400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>226700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>127500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>140600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>203500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>187400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>102400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>125200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>118300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>182300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E61" s="3">
         <v>175500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>87600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>88600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>89700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>90800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>92000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>83600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>87000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>92300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>94900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>97500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>99500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>101400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>103300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>105300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E62" s="3">
         <v>134200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>103300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>109400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>724700</v>
+      </c>
+      <c r="E66" s="3">
         <v>543100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>374700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>360600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>425300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>335600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>263700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>266000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>248000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>318000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>246500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>270200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>264400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>332200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,55 +4119,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E72" s="3">
         <v>157800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>167500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>157700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>167400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>93300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>108500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>116800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>125100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>73400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>81700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>90100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32600</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
@@ -4005,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E76" s="3">
         <v>391500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>399800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>388000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>342700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>348900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>356100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>296000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>314900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>322300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>330700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>265800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>282200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>275400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>286800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>74200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>68600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>62900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7800</v>
       </c>
       <c r="G83" s="3">
         <v>7800</v>
       </c>
       <c r="H83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7800</v>
       </c>
       <c r="M83" s="3">
         <v>7800</v>
       </c>
       <c r="N83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O83" s="3">
         <v>7900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-90700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>274900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-112800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-42600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>249000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-109400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-49600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>236500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-122300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-48800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>244800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-258200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>97100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E100" s="3">
         <v>119400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-129000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>359600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-229500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-63400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>261400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-138700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>230700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-120200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>223500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-140600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>93000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-57200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>107200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E7" s="2">
         <v>44192</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>474200</v>
+      </c>
+      <c r="E8" s="3">
         <v>877300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>283800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>418000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>278800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>605600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>187300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>259400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>248400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>571300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>238500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>526100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>157300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>239500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>233700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>554600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E9" s="3">
         <v>479000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>168300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>248500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>171300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>336500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>154200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>150900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>316500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>145100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>290800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>90100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>141200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>140100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>297600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E10" s="3">
         <v>398300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>115500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>107500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>105200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>254800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>235300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>98300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>257000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>10200</v>
       </c>
       <c r="O12" s="3">
         <v>10200</v>
       </c>
       <c r="P12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>9200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,11 +1111,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1103,17 +1123,17 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1127,67 +1147,73 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E15" s="3">
         <v>11100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7800</v>
       </c>
       <c r="H15" s="3">
         <v>7800</v>
       </c>
       <c r="I15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J15" s="3">
         <v>7600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7800</v>
       </c>
       <c r="N15" s="3">
         <v>7800</v>
       </c>
       <c r="O15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P15" s="3">
         <v>7900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E17" s="3">
         <v>729700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>297200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>405600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>289700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>506100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>207900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>271600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>263000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>476600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>241300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>251000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>441400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>177000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>250300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>250000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>458000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>147600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>99500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="3">
         <v>159000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>107400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1504,146 +1544,155 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1000</v>
       </c>
       <c r="R22" s="3">
         <v>1000</v>
       </c>
       <c r="S22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>147900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>34300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>113700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>74200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>62900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>113700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>74200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>62900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1913,17 +1974,17 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>12200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>113700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>74200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>62900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>113700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>74200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>62900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E38" s="2">
         <v>44192</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E41" s="3">
         <v>370600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>240500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>232100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>295600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>172900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>257700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>173100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>232600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>149700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>114000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E43" s="3">
         <v>72600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>57900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E44" s="3">
         <v>89400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>192600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>97800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>74000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>68000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>172500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>74400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>160700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>68900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>148400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>75900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>63700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>93400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25600</v>
       </c>
       <c r="J45" s="3">
         <v>25600</v>
       </c>
       <c r="K45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>448500</v>
+      </c>
+      <c r="E46" s="3">
         <v>563400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>274900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>378600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>353700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>431600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>268400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>303200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>320500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>390200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>244400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>273000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>282300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>359600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>220200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>257400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>251200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,46 +2869,46 @@
         <v>4100</v>
       </c>
       <c r="E47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F47" s="3">
         <v>3100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2800</v>
       </c>
       <c r="G47" s="3">
         <v>2800</v>
       </c>
       <c r="H47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2200</v>
       </c>
       <c r="L47" s="3">
         <v>2200</v>
       </c>
       <c r="M47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="N47" s="3">
         <v>2300</v>
       </c>
       <c r="O47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="P47" s="3">
         <v>2400</v>
       </c>
       <c r="Q47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R47" s="3">
         <v>2700</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>284100</v>
+      </c>
+      <c r="E48" s="3">
         <v>285700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>288400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>236700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>239300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>166700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>160200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>160400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>163300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>153700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>157500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>161400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>154700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>168700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E49" s="3">
         <v>348700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>349600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>141000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>141200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>141400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>141700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>122200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>123100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>123300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>123700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>124200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>156000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>20300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1107300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1222300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>934700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>774400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>748600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>826200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>665000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>606400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>614900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>685500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>540600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>570900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>570400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>648800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>512300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>552500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>539800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>619000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,78 +3403,82 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E57" s="3">
         <v>105000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5000</v>
       </c>
       <c r="G58" s="3">
         <v>5000</v>
@@ -3359,276 +3493,291 @@
         <v>5000</v>
       </c>
       <c r="K58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L58" s="3">
         <v>12200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E59" s="3">
         <v>296800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>150500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>150000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>126300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>159900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>123500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>90200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>92300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>127000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>303900</v>
+      </c>
+      <c r="E60" s="3">
         <v>416700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>233400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>180300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>168700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>226700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>127500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>140600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>203500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>114900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>120300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>187400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>102400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>125200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>118300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>182300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E61" s="3">
         <v>170900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>175500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>87600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>88600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>90800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>92000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>83600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>87000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>94900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>97500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>99500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>101400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>103300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>105300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E62" s="3">
         <v>137000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>109400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>42900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>607200</v>
+      </c>
+      <c r="E66" s="3">
         <v>724700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>543100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>374700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>360600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>425300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>335600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>263700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>266000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>329400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>244600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>256000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>248000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>318000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>246500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>270200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>264400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>332200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,58 +4293,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>272900</v>
+      </c>
+      <c r="E72" s="3">
         <v>271400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>157800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>167500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>157700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>167400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>93300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>108500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>125100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>73400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>81700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>90100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32600</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500100</v>
+      </c>
+      <c r="E76" s="3">
         <v>497600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>391500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>399800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>388000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>342700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>348900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>356100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>296000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>314900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>322300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>330700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>265800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>282200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>275400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>286800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E80" s="2">
         <v>44192</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>113700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>74200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>62900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E83" s="3">
         <v>11100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7800</v>
       </c>
       <c r="H83" s="3">
         <v>7800</v>
       </c>
       <c r="I83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7800</v>
       </c>
       <c r="N83" s="3">
         <v>7800</v>
       </c>
       <c r="O83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P83" s="3">
         <v>7900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="E89" s="3">
         <v>407400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-90700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>274900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-112800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>249000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-109400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-49600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>236500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-122300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-48800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>244800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-258200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>97100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>119400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-129000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-113800</v>
+      </c>
+      <c r="E102" s="3">
         <v>359600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-229500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>261400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-138700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>230700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-120200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>223500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-140600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>93000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>107200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,309 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44192</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>309400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>487000</v>
+      </c>
+      <c r="F8" s="3">
         <v>474200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>877300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>283800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>418000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>278800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>605600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>187300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>259400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>248400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>571300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>169500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>229900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>238500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>526100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>157300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>239500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>233700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>554600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>289000</v>
+      </c>
+      <c r="F9" s="3">
         <v>289500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>479000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>168300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>248500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>171300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>336500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>111100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>154200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>150900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>316500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>101000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>136900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>145100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>290800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>90100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>141200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>140100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>297600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>198000</v>
+      </c>
+      <c r="F10" s="3">
         <v>184700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>398300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>115500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>169500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>107500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>269100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>76200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>105200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>97500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>254800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>68500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>93000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>93400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>235300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>67200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>98300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>93600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>257000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +990,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F12" s="3">
         <v>14300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>10200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>10300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>9800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,32 +1154,32 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>200</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>-200</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1150,70 +1190,82 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F15" s="3">
         <v>11900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>7800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>8100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>7700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>8500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>9200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1285,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>471700</v>
+      </c>
+      <c r="F17" s="3">
         <v>474500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>729700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>297200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>405600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>289700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>506100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>207900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>271600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>263000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>476600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>192500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>241300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>251000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>441400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>177000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>250300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>250000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>458000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>147600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-13400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>12400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>99500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>94700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-23000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-11400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>84700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-19700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-16300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>96600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1447,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>14900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F21" s="3">
         <v>11000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>159000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>22500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>107400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-15800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>93200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>105700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1547,152 +1627,170 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>147900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>99600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>92000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-23700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>83300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-20400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-17100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>94400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>34300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>25400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-6400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>24800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>31500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1851,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>113700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>74200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>68600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>58500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-13200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-11100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>62900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>113700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>74200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>68600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>58500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-13200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-11100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>62900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,11 +2087,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1977,20 +2099,20 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>12200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2259,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-14900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>113700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>74200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>68600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>70700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-13200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-11100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>62900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2463,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>113700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>74200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>68600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>70700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-13200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-11100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>62900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44192</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2660,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>173600</v>
+      </c>
+      <c r="F41" s="3">
         <v>256800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>370600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>240500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>232100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>295600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>172900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>206400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>257700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>27000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>147200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>173100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>232600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>149700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>56800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>114000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,309 +2792,339 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F43" s="3">
         <v>39100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>72600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>32000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>26200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>44600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>36100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>48400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>30700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>12900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>22500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>44400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>35700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>14100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>21500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>57900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>153900</v>
+      </c>
+      <c r="F44" s="3">
         <v>122400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>89400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>192600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>97800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>74000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>68000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>172500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>92400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>74400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>64000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>160700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>88800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>68900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>60600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>148400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>75900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>63700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>93400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F45" s="3">
         <v>30200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>30900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>39300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>25200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>21300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>23400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>25600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>25600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>26000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>24000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>22000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>26900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>17700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>109200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>19600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>385500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400100</v>
+      </c>
+      <c r="F46" s="3">
         <v>448500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>563400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>274900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>378600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>353700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>431600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>268400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>303200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>320500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>390200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>244400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>273000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>282300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>359600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>220200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>257400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>251200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>284900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>2200</v>
       </c>
       <c r="M47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P47" s="3">
         <v>2300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2700</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>10</v>
@@ -2922,132 +3132,150 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>301500</v>
+      </c>
+      <c r="F48" s="3">
         <v>284100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>285700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>288400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>235800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>236700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>235500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>239300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>166700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>158200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>160200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>160400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>163300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>153700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>154600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>157500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>161400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>154700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>168700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>346300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>347200</v>
+      </c>
+      <c r="F49" s="3">
         <v>348000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>348700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>349600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>141000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>141200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>141400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>141700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>122200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>122400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>122500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>122200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>122400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>122700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>123100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>123300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>123700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>124200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>156000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3404,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F52" s="3">
         <v>22600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>20300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>18600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>16200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>15100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>11300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3540,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1089900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1076700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1107300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1222300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>934700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>774400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>748600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>826200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>665000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>606400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>614900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>685500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>540600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>570900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>570400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>648800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>512300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>552500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>539800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>619000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,87 +3664,95 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F57" s="3">
         <v>60200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>105000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>45400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>25300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>37300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>61800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>37100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>51900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>33200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>41400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>19000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>55300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>27400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>27800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>19500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>49500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F58" s="3">
         <v>17500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>37500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5000</v>
       </c>
       <c r="I58" s="3">
         <v>5000</v>
@@ -3496,288 +3764,318 @@
         <v>5000</v>
       </c>
       <c r="L58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N58" s="3">
         <v>12200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>11500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>10100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>9300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>7900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>188500</v>
+      </c>
+      <c r="F59" s="3">
         <v>226200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>296800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>150500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>150000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>126300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>159900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>93300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>96800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>103000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>140100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>70900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>73300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>91900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>123500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>67000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>90200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>92300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>127000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>265900</v>
+      </c>
+      <c r="F60" s="3">
         <v>303900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>416700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>233400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>180300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>168700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>226700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>135400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>127500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>140600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>203500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>114900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>124800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>120300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>187400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>102400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>125200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>118300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>182300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>161500</v>
+      </c>
+      <c r="F61" s="3">
         <v>166200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>170900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>175500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>87600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>88600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>89700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>90800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>92000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>83600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>87000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>89600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>92300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>94900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>97500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>99500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>101400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>103300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>105300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F62" s="3">
         <v>137100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>137000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>134200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>106800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>103300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>108900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>109400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>44300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>41800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>38900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>40100</v>
       </c>
       <c r="O62" s="3">
         <v>38900</v>
       </c>
       <c r="P62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="R62" s="3">
         <v>32800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>33100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>44700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>43700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>42900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>44600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4272,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>599500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>567600</v>
+      </c>
+      <c r="F66" s="3">
         <v>607200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>724700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>543100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>374700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>360600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>425300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>335600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>263700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>266000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>329400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>244600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>256000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>248000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>318000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>246500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>270200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>264400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>332200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>286200</v>
+      </c>
+      <c r="F72" s="3">
         <v>272900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>271400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>157800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>167500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>157700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>167400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>93300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>108500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>116800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>125100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>57300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>73400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>81700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>90100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>19400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>32600</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>509100</v>
+      </c>
+      <c r="F76" s="3">
         <v>500100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>497600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>391500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>399800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>388000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>329400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>342700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>348900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>356100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>296000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>314900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>322300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>330700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>265800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>282200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>275400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>286800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5046,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44192</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>113700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>74200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>68600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>70700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-13200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-11100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>62900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5217,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F83" s="3">
         <v>11900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>8500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>9200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5621,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-98400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>407400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-90700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>22100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-44800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>274900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-112800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-42600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>249000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-109400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>236500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-122300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-48800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>244800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5719,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5288,61 +5730,67 @@
         <v>-11100</v>
       </c>
       <c r="E91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-12400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-14900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-8600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5919,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,61 +5934,67 @@
         <v>-11100</v>
       </c>
       <c r="E94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-258200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-17500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>97100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6285,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-38100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>119400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-11500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-3900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-129000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6421,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-113800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>359600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-229500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-63400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>261400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-138700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-33500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-51300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>230700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-120200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-25800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>223500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-140600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>93000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-57200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>107200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44374</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44192</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E8" s="3">
         <v>309400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>487000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>474200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>877300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>283800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>418000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>278800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>605600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>187300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>259400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>248400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>571300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>169500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>238500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>526100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>157300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>239500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>233700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>554600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>564600</v>
+      </c>
+      <c r="E9" s="3">
         <v>183900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>289000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>289500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>479000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>168300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>248500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>171300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>336500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>154200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>316500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>101000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>145100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>290800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>90100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>141200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>140100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>297600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E10" s="3">
         <v>125500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>198000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>184700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>398300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>115500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>169500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>107500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>269100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>105200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>254800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>235300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>67200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>98300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>93600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>257000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>10200</v>
       </c>
       <c r="R12" s="3">
         <v>10200</v>
       </c>
       <c r="S12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T12" s="3">
         <v>9200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,11 +1179,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1172,17 +1191,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1196,76 +1215,82 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7800</v>
       </c>
       <c r="K15" s="3">
         <v>7800</v>
       </c>
       <c r="L15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M15" s="3">
         <v>7600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7800</v>
       </c>
       <c r="Q15" s="3">
         <v>7800</v>
       </c>
       <c r="R15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S15" s="3">
         <v>7900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>827300</v>
+      </c>
+      <c r="E17" s="3">
         <v>329700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>471700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>474500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>729700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>297200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>405600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>289700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>506100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>207900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>271600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>263000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>476600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>241300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>251000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>441400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>177000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>250300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>250000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>458000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>96600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>159000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,164 +1672,173 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1000</v>
       </c>
       <c r="U22" s="3">
         <v>1000</v>
       </c>
       <c r="V22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>92000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>94400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>113700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>62900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>113700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>58500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>62900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2153,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2105,17 +2165,17 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>12200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>113700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>70700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>62900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>113700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>70700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>62900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44374</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44192</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>173600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>256800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>370600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>240500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>232100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>295600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>172900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>206400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>257700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>147200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>173100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>232600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>149700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>56800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>114000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E43" s="3">
         <v>30600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>57900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E44" s="3">
         <v>282400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>153900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>89400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>192600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>74000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>172500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>92400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>74400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>64000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>160700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>88800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>68900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>60600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>148400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>75900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>63700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>93400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E45" s="3">
         <v>68600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>25600</v>
       </c>
       <c r="M45" s="3">
         <v>25600</v>
       </c>
       <c r="N45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="O45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>572900</v>
+      </c>
+      <c r="E46" s="3">
         <v>385500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>448500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>563400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>274900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>378600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>353700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>431600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>303200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>320500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>390200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>244400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>273000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>282300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>359600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>220200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>257400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>251200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>284900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3082,52 +3186,52 @@
         <v>4600</v>
       </c>
       <c r="F47" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="G47" s="3">
         <v>4100</v>
       </c>
       <c r="H47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I47" s="3">
         <v>3100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2800</v>
       </c>
       <c r="J47" s="3">
         <v>2800</v>
       </c>
       <c r="K47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L47" s="3">
         <v>2600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2200</v>
       </c>
       <c r="O47" s="3">
         <v>2200</v>
       </c>
       <c r="P47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="Q47" s="3">
         <v>2300</v>
       </c>
       <c r="R47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="S47" s="3">
         <v>2400</v>
       </c>
       <c r="T47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U47" s="3">
         <v>2700</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
@@ -3138,144 +3242,153 @@
       <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E48" s="3">
         <v>330400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>301500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>284100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>285700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>288400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>235800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>236700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>239300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>166700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>158200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>160200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>160400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>163300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>153700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>154600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>157500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>161400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>154700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>168700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>359700</v>
+      </c>
+      <c r="E49" s="3">
         <v>346300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>347200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>348000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>348700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>349600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>141000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>141200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>123100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>123300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>123700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>124200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>156000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>23100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1321300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1089900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1076700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1107300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1222300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>934700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>774400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>748600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>826200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>665000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>606400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>614900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>685500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>540600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>570900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>570400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>648800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>512300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>552500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>539800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>619000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,96 +3795,100 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E57" s="3">
         <v>65400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>105000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>41400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>25000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5000</v>
       </c>
       <c r="J58" s="3">
         <v>5000</v>
@@ -3770,312 +3903,327 @@
         <v>5000</v>
       </c>
       <c r="N58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O58" s="3">
         <v>12200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E59" s="3">
         <v>184500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>188500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>226200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>296800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>150500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>150000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>126300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>96800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>103000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>70900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>123500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>90200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>92300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>127000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>420900</v>
+      </c>
+      <c r="E60" s="3">
         <v>274800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>265900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>303900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>416700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>233400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>180300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>168700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>226700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>127500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>140600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>203500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>114900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>124800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>120300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>187400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>102400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>125200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>118300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>182300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E61" s="3">
         <v>156800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>161500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>166200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>170900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>175500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>87600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>88600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>92000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>83600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>87000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>89600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>92300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>94900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>97500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>99500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>101400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>103300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E62" s="3">
         <v>167900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>140200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>134200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>106800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>103300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>109400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>43700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>756400</v>
+      </c>
+      <c r="E66" s="3">
         <v>599500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>567600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>607200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>724700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>543100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>374700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>360600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>425300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>335600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>263700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>266000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>329400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>244600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>256000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>248000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>318000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>246500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>270200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>264400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>332200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,67 +4814,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>361400</v>
+      </c>
+      <c r="E72" s="3">
         <v>273000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>286200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>272900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>271400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>157800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>167500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>157700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>167400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>93300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>108500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>125100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>73400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>81700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>90100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32600</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>10</v>
@@ -4712,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E76" s="3">
         <v>490400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>509100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>497600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>391500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>399800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>388000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>342700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>348900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>356100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>296000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>314900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>322300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>330700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>265800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>282200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>275400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>286800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44374</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44192</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>113700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>70700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>62900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7800</v>
       </c>
       <c r="K83" s="3">
         <v>7800</v>
       </c>
       <c r="L83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7800</v>
       </c>
       <c r="Q83" s="3">
         <v>7800</v>
       </c>
       <c r="R83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S83" s="3">
         <v>7900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-150200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-98400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>407400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-90700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-44800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>274900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-112800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>249000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-49600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>236500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-122300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-48800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>244800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-258200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>97100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>119400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-129000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-169800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-113800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>359600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-229500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>261400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-138700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-51300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>230700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-120200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>223500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-140600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>93000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-57200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>107200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E7" s="2">
         <v>44556</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44283</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44192</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>469600</v>
+      </c>
+      <c r="E8" s="3">
         <v>943000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>309400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>487000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>474200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>877300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>283800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>418000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>278800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>605600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>187300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>259400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>248400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>571300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>169500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>238500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>526100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>157300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>239500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>233700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>554600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315500</v>
+      </c>
+      <c r="E9" s="3">
         <v>564600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>183900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>289000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>289500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>479000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>168300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>248500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>171300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>336500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>111100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>154200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>150900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>316500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>145100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>290800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>90100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>141200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>140100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>297600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E10" s="3">
         <v>378400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>125500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>198000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>184700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>398300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>115500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>169500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>269100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>105200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>254800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>235300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>98300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>93600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>257000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>10200</v>
       </c>
       <c r="S12" s="3">
         <v>10200</v>
       </c>
       <c r="T12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="U12" s="3">
         <v>9200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,11 +1202,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1194,17 +1214,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1218,79 +1238,85 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
         <v>12600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7800</v>
       </c>
       <c r="L15" s="3">
         <v>7800</v>
       </c>
       <c r="M15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N15" s="3">
         <v>7600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7800</v>
       </c>
       <c r="R15" s="3">
         <v>7800</v>
       </c>
       <c r="S15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="T15" s="3">
         <v>7900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>9200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>495800</v>
+      </c>
+      <c r="E17" s="3">
         <v>827300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>329700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>471700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>474500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>729700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>297200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>405600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>289700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>506100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>207900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>271600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>263000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>476600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>241300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>251000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>441400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>177000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>250300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>250000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>458000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>115700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>147600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>84700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-16300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>96600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E21" s="3">
         <v>129100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>159000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>93200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>105700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1675,170 +1715,179 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1000</v>
       </c>
       <c r="V22" s="3">
         <v>1000</v>
       </c>
       <c r="W22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E23" s="3">
         <v>116500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>94400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-5900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E26" s="3">
         <v>88500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>113700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>62900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>88500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>113700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>68600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>62900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2156,8 +2217,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2168,17 +2229,17 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>12200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>88500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>113700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>68600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>70700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>62900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>88500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>113700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>68600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>70700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>62900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E38" s="2">
         <v>44556</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44374</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44283</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44192</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E41" s="3">
         <v>271100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>173600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>256800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>370600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>240500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>232100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>295600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>172900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>257700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>147200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>173100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>232600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>149700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>56800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>114000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,297 +2980,312 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E43" s="3">
         <v>77800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>48400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>35700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>57900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E44" s="3">
         <v>191100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>282400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>153900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>89400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>192600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>97800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>74000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>172500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>92400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>74400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>64000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>160700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>88800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>68900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>60600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>148400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>75900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>63700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>93400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E45" s="3">
         <v>33000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>25600</v>
       </c>
       <c r="N45" s="3">
         <v>25600</v>
       </c>
       <c r="O45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>17700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>109200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>381900</v>
+      </c>
+      <c r="E46" s="3">
         <v>572900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>385500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>448500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>563400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>274900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>378600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>353700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>431600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>268400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>303200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>320500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>390200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>244400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>273000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>282300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>359600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>220200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>257400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>251200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>284900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4600</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>4600</v>
@@ -3189,52 +3294,52 @@
         <v>4600</v>
       </c>
       <c r="G47" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="H47" s="3">
         <v>4100</v>
       </c>
       <c r="I47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J47" s="3">
         <v>3100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2800</v>
       </c>
       <c r="K47" s="3">
         <v>2800</v>
       </c>
       <c r="L47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2200</v>
       </c>
       <c r="P47" s="3">
         <v>2200</v>
       </c>
       <c r="Q47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="R47" s="3">
         <v>2300</v>
       </c>
       <c r="S47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="T47" s="3">
         <v>2400</v>
       </c>
       <c r="U47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V47" s="3">
         <v>2700</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E48" s="3">
         <v>361600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>330400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>301500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>284100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>285700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>288400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>235800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>236700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>239300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>166700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>158200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>160200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>160400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>163300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>153700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>154600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>157500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>161400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>154700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>168700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E49" s="3">
         <v>359700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>346300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>347200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>348000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>348700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>349600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>141000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>141700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>122200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>123100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>123300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>123700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>124200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>156000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E52" s="3">
         <v>22600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1128700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1321300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1089900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1076700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1107300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1222300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>934700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>774400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>748600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>826200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>665000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>606400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>614900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>685500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>540600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>570900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>570400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>648800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>512300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>552500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>539800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>619000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E57" s="3">
         <v>109300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>105000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>49500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,22 +4010,22 @@
         <v>20000</v>
       </c>
       <c r="E58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F58" s="3">
         <v>25000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5000</v>
       </c>
       <c r="K58" s="3">
         <v>5000</v>
@@ -3906,324 +4040,339 @@
         <v>5000</v>
       </c>
       <c r="O58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P58" s="3">
         <v>12200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E59" s="3">
         <v>291700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>184500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>188500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>226200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>296800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>150500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>150000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>96800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>103000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>140100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>123500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>67000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>90200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>92300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>127000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>267600</v>
+      </c>
+      <c r="E60" s="3">
         <v>420900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>274800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>265900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>303900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>416700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>233400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>180300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>226700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>127500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>140600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>203500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>114900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>124800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>120300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>187400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>102400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>125200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>118300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>182300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E61" s="3">
         <v>151800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>161500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>166200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>170900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>175500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>87600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>83600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>87000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>89600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>92300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>94900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>97500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>99500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>101400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>103300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>105300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E62" s="3">
         <v>183600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>167900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>140200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>137100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>134200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>103300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>109400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>43700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>42900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>44600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>594900</v>
+      </c>
+      <c r="E66" s="3">
         <v>756400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>599500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>567600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>607200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>724700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>543100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>374700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>360600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>425300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>335600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>263700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>266000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>329400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>244600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>256000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>248000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>318000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>246500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>270200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>264400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>332200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,70 +4988,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E72" s="3">
         <v>361400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>273000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>286200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>272900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>271400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>157800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>167500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>157700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>167400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>93300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>108500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>125100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>73400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>81700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>90100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32600</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>10</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>533800</v>
+      </c>
+      <c r="E76" s="3">
         <v>565000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>490400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>509100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>497600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>399800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>388000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>342700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>348900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>356100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>296000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>314900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>322300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>330700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>265800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>282200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>275400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>286800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E80" s="2">
         <v>44556</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44374</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44283</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44192</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>88500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>113700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>68600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>70700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>62900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E83" s="3">
         <v>12600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7800</v>
       </c>
       <c r="L83" s="3">
         <v>7800</v>
       </c>
       <c r="M83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7800</v>
       </c>
       <c r="R83" s="3">
         <v>7800</v>
       </c>
       <c r="S83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="T83" s="3">
         <v>7900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E89" s="3">
         <v>336000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-150200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-98400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>407400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-90700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-44800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>274900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-112800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>249000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-109400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-49600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>236500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-122300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-48800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>244800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-258200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>97100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-129000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E102" s="3">
         <v>267300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-169800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-113800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>359600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-229500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>261400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-138700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-51300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>230700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-120200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-59500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>223500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-140600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>93000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>107200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44647</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44556</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44192</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E8" s="3">
         <v>469600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>943000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>309400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>487000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>474200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>877300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>283800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>418000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>278800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>605600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>187300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>259400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>248400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>571300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>169500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>229900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>238500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>526100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>157300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>239500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>233700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>554600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>322200</v>
+      </c>
+      <c r="E9" s="3">
         <v>315500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>564600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>183900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>289000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>289500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>479000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>168300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>248500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>171300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>336500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>154200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>150900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>316500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>145100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>290800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>90100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>141200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>140100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>297600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E10" s="3">
         <v>154100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>378400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>125500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>198000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>184700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>398300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>269100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>105200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>254800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>93400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>235300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>98300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>93600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>257000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10200</v>
       </c>
       <c r="T12" s="3">
         <v>10200</v>
       </c>
       <c r="U12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="V12" s="3">
         <v>9200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,11 +1225,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1217,17 +1237,17 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1241,82 +1261,88 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7800</v>
       </c>
       <c r="M15" s="3">
         <v>7800</v>
       </c>
       <c r="N15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O15" s="3">
         <v>7600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7800</v>
       </c>
       <c r="S15" s="3">
         <v>7800</v>
       </c>
       <c r="T15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="U15" s="3">
         <v>7900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>9200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>512900</v>
+      </c>
+      <c r="E17" s="3">
         <v>495800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>827300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>329700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>471700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>474500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>729700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>297200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>405600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>289700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>506100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>207900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>271600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>263000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>476600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>192500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>241300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>251000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>441400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>177000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>250300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>250000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>458000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>147600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>84700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-19700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>96600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>129100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>159000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>107400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>105700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1718,176 +1758,185 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1000</v>
       </c>
       <c r="W22" s="3">
         <v>1000</v>
       </c>
       <c r="X22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>99600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>94400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>88500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>113700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>62900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>88500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>113700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>68600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>58500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>62900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,8 +2281,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2232,17 +2293,17 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>12200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>88500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>113700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>70700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>62900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>88500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>113700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>70700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>62900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44647</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44556</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44192</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E41" s="3">
         <v>93000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>256800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>370600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>240500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>295600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>172900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>147200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>173100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>232600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>149700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>56800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>114000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,312 +3073,327 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E43" s="3">
         <v>40900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>48400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>57900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E44" s="3">
         <v>214400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>191100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>282400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>153900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>122400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>89400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>192600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>74000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>68000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>172500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>92400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>74400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>64000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>160700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>88800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>68900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>60600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>148400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>75900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>63700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>93400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E45" s="3">
         <v>33500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>68600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>25600</v>
       </c>
       <c r="O45" s="3">
         <v>25600</v>
       </c>
       <c r="P45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>20600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>26900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>17700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>109200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>348200</v>
+      </c>
+      <c r="E46" s="3">
         <v>381900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>572900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>385500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>448500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>563400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>274900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>378600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>353700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>431600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>268400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>303200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>320500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>390200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>244400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>273000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>282300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>359600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>220200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>257400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>251200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>284900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4600</v>
       </c>
       <c r="F47" s="3">
         <v>4600</v>
@@ -3297,52 +3402,52 @@
         <v>4600</v>
       </c>
       <c r="H47" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3">
         <v>4100</v>
       </c>
       <c r="J47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2800</v>
       </c>
       <c r="L47" s="3">
         <v>2800</v>
       </c>
       <c r="M47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N47" s="3">
         <v>2600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2100</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2200</v>
       </c>
       <c r="Q47" s="3">
         <v>2200</v>
       </c>
       <c r="R47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="S47" s="3">
         <v>2300</v>
       </c>
       <c r="T47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="U47" s="3">
         <v>2400</v>
       </c>
       <c r="V47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W47" s="3">
         <v>2700</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>10</v>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E48" s="3">
         <v>361000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>361600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>330400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>301500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>284100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>285700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>288400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>236700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>239300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>166700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>158200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>160200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>160400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>163300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>153700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>154600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>157500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>161400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>154700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>168700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>358900</v>
+      </c>
+      <c r="E49" s="3">
         <v>360500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>359700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>346300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>347200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>348000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>348700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>349600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>141400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>141700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>123100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>123300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>123700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>124200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>156000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>22200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1094900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1128700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1321300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1089900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1076700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1107300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1222300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>934700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>774400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>748600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>826200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>665000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>606400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>614900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>685500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>540600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>570900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>570400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>648800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>512300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>552500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>539800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>619000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4057,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E57" s="3">
         <v>58500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>109300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>105000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>49500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,22 +4147,22 @@
         <v>20000</v>
       </c>
       <c r="F58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G58" s="3">
         <v>25000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>37500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5000</v>
       </c>
       <c r="L58" s="3">
         <v>5000</v>
@@ -4043,336 +4177,351 @@
         <v>5000</v>
       </c>
       <c r="P58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>12200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>188300</v>
+      </c>
+      <c r="E59" s="3">
         <v>189100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>291700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>184500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>188500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>226200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>296800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>150500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>150000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>126300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>96800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>140100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>70900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>123500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>67000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>90200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>92300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>127000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E60" s="3">
         <v>267600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>420900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>274800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>265900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>303900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>416700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>233400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>180300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>168700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>226700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>135400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>127500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>140600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>203500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>114900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>124800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>120300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>102400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>125200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>118300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>182300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E61" s="3">
         <v>147200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>151800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>156800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>161500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>170900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>175500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>87600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>92000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>83600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>87000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>89600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>92300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>94900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>97500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>99500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>101400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>103300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>105300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E62" s="3">
         <v>180100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>183600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>167900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>140200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>137100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>137000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>134200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>109400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>43700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>44600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>585500</v>
+      </c>
+      <c r="E66" s="3">
         <v>594900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>756400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>599500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>567600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>607200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>724700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>543100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>360600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>425300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>335600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>263700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>266000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>329400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>244600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>256000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>248000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>318000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>246500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>270200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>264400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>332200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,73 +5162,76 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>315800</v>
+      </c>
+      <c r="E72" s="3">
         <v>338000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>361400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>273000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>286200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>272900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>271400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>157800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>167500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>157700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>167400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>93300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>108500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>116800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>125100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>57300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>73400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>81700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>90100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32600</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>10</v>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>509400</v>
+      </c>
+      <c r="E76" s="3">
         <v>533800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>565000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>490400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>509100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>497600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>399800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>388000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>329400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>342700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>348900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>356100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>296000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>314900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>322300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>330700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>265800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>282200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>275400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>286800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44647</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44556</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44192</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>88500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>113700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>70700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>62900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7800</v>
       </c>
       <c r="M83" s="3">
         <v>7800</v>
       </c>
       <c r="N83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7800</v>
       </c>
       <c r="S83" s="3">
         <v>7800</v>
       </c>
       <c r="T83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="U83" s="3">
         <v>7900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-147100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>336000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-150200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-98400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>407400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-90700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-44800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>274900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-112800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>249000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-109400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-49600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>236500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-122300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-48800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>244800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-258200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>97100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-129000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-178000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>267300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-169800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-113800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>359600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-229500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>261400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-138700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>230700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-120200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-59500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>223500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-140600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>93000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>107200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44647</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44556</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44192</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>897900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>303600</v>
+      </c>
+      <c r="F8" s="3">
         <v>485900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>469600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>943000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>309400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>487000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>474200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>877300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>283800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>418000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>278800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>605600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>187300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>259400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>248400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>571300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>169500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>229900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>238500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>526100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>157300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>239500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>233700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>554600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>530100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>202100</v>
+      </c>
+      <c r="F9" s="3">
         <v>322200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>315500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>564600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>183900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>289000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>289500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>479000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>168300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>248500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>171300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>336500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>111100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>154200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>150900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>316500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>101000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>136900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>145100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>290800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>90100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>141200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>140100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>297600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>367800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>101500</v>
+      </c>
+      <c r="F10" s="3">
         <v>163700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>154100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>378400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>125500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>198000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>184700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>398300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>115500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>169500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>107500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>269100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>76200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>105200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>97500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>254800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>68500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>93000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>93400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>235300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>67200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>98300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>93600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>257000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F12" s="3">
         <v>15200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>13500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>10300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>10200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>9700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>9300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>10300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>9800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,31 +1219,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1228,32 +1266,32 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>200</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>200</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>-200</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1264,85 +1302,97 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>14300</v>
       </c>
       <c r="E15" s="3">
         <v>12700</v>
       </c>
       <c r="F15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H15" s="3">
         <v>12600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>11000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>9200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>7800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>7600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>7000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>7800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>7800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>7900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>8700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>8100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>7700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>8500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>9200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>782800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>345000</v>
+      </c>
+      <c r="F17" s="3">
         <v>512900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>495800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>827300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>329700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>471700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>474500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>729700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>297200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>405600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>289700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>506100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>207900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>271600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>263000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>476600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>192500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>241300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>251000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>441400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>177000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>250300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>250000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>458000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>115700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>147600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>12400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>99500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>94700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-23000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-11400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-12500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>84700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-19700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>96600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-600</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>14900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>129100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>159000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>107400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-13700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-15800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>93200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-11300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>11800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>105700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1761,182 +1839,200 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>2200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-32600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>116500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>147900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>99600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-21300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>92000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-23700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-13100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>83300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-20400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-17100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>94400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>28000</v>
       </c>
       <c r="G24" s="3">
         <v>-8100</v>
       </c>
       <c r="H24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>34300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>23400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-6400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>24800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-7200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>31500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-23400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>88500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>113700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>68600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-8500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>58500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-13200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>8000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>62900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-23400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>88500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>113700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>74200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>68600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-8500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>58500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-13200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>8000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>62900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2284,11 +2404,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2296,20 +2416,20 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>12200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2320,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>600</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>88500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>113700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>74200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>68600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-17300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>70700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-13200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>8000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>62900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>88500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>113700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>74200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>68600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-17300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>70700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-13200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>8000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>62900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44647</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44556</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44192</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F41" s="3">
         <v>31500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>93000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>271100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>173600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>256800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>370600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>240500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>232100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>295600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>34200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>172900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>206400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>257700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>27000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>147200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>173100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>232600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>149700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>56800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>114000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3254,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F43" s="3">
         <v>23800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>40900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>77800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>30600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>72600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>32000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>15200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>26200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>44600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>12400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>19200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>48400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>30700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>12900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>22500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>44400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>35700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>14100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>21500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>57900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>342600</v>
+      </c>
+      <c r="F44" s="3">
         <v>247600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>214400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>191100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>282400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>153900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>122400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>89400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>192600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>97800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>74000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>68000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>172500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>92400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>74400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>64000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>160700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>88800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>68900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>60600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>148400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>75900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>63700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>93400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F45" s="3">
         <v>45400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>33000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>68600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>51800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>30200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>39300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>25200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>23400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>25600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>25600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>20100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>26000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>24000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>17800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>22000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>26900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>17700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>109200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>19600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>468700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>465800</v>
+      </c>
+      <c r="F46" s="3">
         <v>348200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>381900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>572900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>385500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>448500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>563400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>274900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>378600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>353700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>431600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>268400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>303200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>320500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>390200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>244400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>273000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>282300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>359600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>220200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>257400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>251200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>284900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3393,67 +3601,67 @@
         <v>3500</v>
       </c>
       <c r="E47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="3">
         <v>3100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4600</v>
       </c>
       <c r="H47" s="3">
         <v>4600</v>
       </c>
       <c r="I47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2100</v>
       </c>
       <c r="Q47" s="3">
         <v>2200</v>
       </c>
       <c r="R47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S47" s="3">
         <v>2200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U47" s="3">
         <v>2300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2700</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
@@ -3461,162 +3669,180 @@
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>367600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>371000</v>
+      </c>
+      <c r="F48" s="3">
         <v>365900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>361000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>361600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>330400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>301500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>284100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>285700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>288400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>235800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>236700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>235500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>239300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>166700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>158200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>160200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>160400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>163300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>153700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>154600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>157500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>161400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>154700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>168700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>356800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>357800</v>
+      </c>
+      <c r="F49" s="3">
         <v>358900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>360500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>359700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>346300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>347200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>348000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>348700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>349600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>141000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>141200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>141400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>141700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>122200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>122400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>122500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>122200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>122400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>122700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>123100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>123300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>123700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>124200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>156000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>22200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>22600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>23100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>23300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>22600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>20300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>14300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>11700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>10400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>11300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>9100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>8600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>10000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>9700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>9400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1216200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1094900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1128700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1321300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1089900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1076700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1107300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1222300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>934700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>774400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>748600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>826200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>665000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>606400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>614900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>685500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>540600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>570900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>570400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>648800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>512300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>552500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>539800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>619000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F57" s="3">
         <v>57400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>58500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>109300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>65400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>57400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>60200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>105000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>45400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>37300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>61800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>37100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>25700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>25400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>51900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>33200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>41400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>19000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>55300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>27400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>27800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>19500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>49500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,31 +4410,31 @@
         <v>20000</v>
       </c>
       <c r="E58" s="3">
-        <v>20000</v>
+        <v>160000</v>
       </c>
       <c r="F58" s="3">
         <v>20000</v>
       </c>
       <c r="G58" s="3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="H58" s="3">
         <v>20000</v>
       </c>
       <c r="I58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K58" s="3">
         <v>17500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>37500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5000</v>
       </c>
       <c r="N58" s="3">
         <v>5000</v>
@@ -4180,348 +4446,378 @@
         <v>5000</v>
       </c>
       <c r="Q58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S58" s="3">
         <v>12200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>11500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>9300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>8600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>7900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>6500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>195900</v>
+      </c>
+      <c r="F59" s="3">
         <v>188300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>189100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>291700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>184500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>188500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>226200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>296800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>150500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>150000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>126300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>159900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>93300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>96800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>103000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>140100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>70900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>73300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>91900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>123500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>67000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>90200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>92300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>127000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>344300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>419500</v>
+      </c>
+      <c r="F60" s="3">
         <v>265700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>267600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>420900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>274800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>265900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>303900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>416700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>233400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>180300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>168700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>226700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>135400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>127500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>140600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>203500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>114900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>124800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>120300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>187400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>102400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>125200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>118300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>182300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>138200</v>
+      </c>
+      <c r="F61" s="3">
         <v>142500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>147200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>151800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>156800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>161500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>166200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>170900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>175500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>87600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>88600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>89700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>90800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>92000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>83600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>87000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>89600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>92300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>94900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>97500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>99500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>101400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>103300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>105300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>181300</v>
+      </c>
+      <c r="F62" s="3">
         <v>177300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>180100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>183600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>167900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>140200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>137100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>137000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>134200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>106800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>103300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>108900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>109400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>41800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>38900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>40100</v>
       </c>
       <c r="T62" s="3">
         <v>38900</v>
       </c>
       <c r="U62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="V62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="W62" s="3">
         <v>32800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>33100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>44700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>43700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>42900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>44600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>656500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>738900</v>
+      </c>
+      <c r="F66" s="3">
         <v>585500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>594900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>756400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>599500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>567600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>607200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>724700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>543100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>374700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>360600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>425300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>335600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>263700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>266000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>329400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>244600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>256000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>248000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>318000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>246500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>270200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>264400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>332200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>282100</v>
+      </c>
+      <c r="F72" s="3">
         <v>315800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>338000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>361400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>273000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>286200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>272900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>271400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>157800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>167500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>157700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>167400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>93300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>108500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>116800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>125100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>57300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>73400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>81700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>90100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>19400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>32600</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>560500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>477300</v>
+      </c>
+      <c r="F76" s="3">
         <v>509400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>533800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>565000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>490400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>509100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>497600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>391500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>399800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>388000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>400900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>329400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>342700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>348900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>356100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>296000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>314900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>322300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>330700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>265800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>282200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>275400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>286800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44647</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44556</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44192</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>88500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>113700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>74200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>68600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-17300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>70700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-13200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>8000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>62900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12800</v>
+        <v>14300</v>
       </c>
       <c r="E83" s="3">
         <v>12700</v>
       </c>
       <c r="F83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>11900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>7900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>7700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>8500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>9200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-146300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-147100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>336000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-150200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-44900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-98400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>407400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-90700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>22100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-44800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>274900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-112800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-42600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>249000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-109400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-49600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>236500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-122300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-48800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>244800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-28400</v>
       </c>
       <c r="I91" s="3">
         <v>-11100</v>
       </c>
       <c r="J91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-12400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-17500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-42300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-28900</v>
       </c>
       <c r="I94" s="3">
         <v>-11100</v>
       </c>
       <c r="J94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-258200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-17500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-12500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>97100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>135300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-26500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-38100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>119400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-11500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-8200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-5800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-129000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-61600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-178000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>267300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-169800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-83200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-113800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>359600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-229500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-63400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>261400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-138700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-51300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>230700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-120200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-25800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-59500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>223500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-140600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>93000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-57200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>107200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44647</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44556</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44283</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44192</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E8" s="3">
         <v>897900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>303600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>485900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>469600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>943000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>309400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>487000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>474200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>877300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>283800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>418000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>278800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>605600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>187300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>259400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>248400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>571300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>169500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>229900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>238500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>526100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>157300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>239500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>233700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>554600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E9" s="3">
         <v>530100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>202100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>322200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>315500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>564600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>183900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>289000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>289500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>479000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>168300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>248500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>171300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>336500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>150900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>316500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>145100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>290800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>90100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>141200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>140100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>297600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E10" s="3">
         <v>367800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>101500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>163700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>154100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>378400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>125500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>198000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>184700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>398300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>107500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>269100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>105200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>254800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>68500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>93000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>93400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>235300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>67200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>98300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>93600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>257000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>10200</v>
       </c>
       <c r="W12" s="3">
         <v>10200</v>
       </c>
       <c r="X12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Y12" s="3">
         <v>9200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,34 +1242,37 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>64600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1272,11 +1292,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1284,17 +1304,17 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1308,91 +1328,97 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E15" s="3">
         <v>14300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7800</v>
       </c>
       <c r="P15" s="3">
         <v>7800</v>
       </c>
       <c r="Q15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R15" s="3">
         <v>7600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>7800</v>
       </c>
       <c r="V15" s="3">
         <v>7800</v>
       </c>
       <c r="W15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="X15" s="3">
         <v>7900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>8700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>7700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>9200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>502200</v>
+      </c>
+      <c r="E17" s="3">
         <v>782800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>345000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>512900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>495800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>827300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>329700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>471700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>474500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>729700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>297200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>405600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>289700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>207900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>271600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>263000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>476600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>241300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>251000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>441400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>177000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>250300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>250000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>458000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E18" s="3">
         <v>115100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>147600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>99500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>94700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-23000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>84700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-16300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>96600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E21" s="3">
         <v>125100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>159000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>107400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>11800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-7400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>105700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1845,194 +1885,203 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1000</v>
       </c>
       <c r="Z22" s="3">
         <v>1000</v>
       </c>
       <c r="AA22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>1200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="E23" s="3">
         <v>110800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>92000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>83300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-17100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>94400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E24" s="3">
         <v>28300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-6400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>31500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E26" s="3">
         <v>82500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>88500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>113700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>58500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>62900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E27" s="3">
         <v>82500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>113700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>58500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>62900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,8 +2471,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2422,17 +2483,17 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>12200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>82500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>88500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>113700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>70700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>62900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>82500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>88500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>113700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>70700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>62900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44647</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44556</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44283</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44192</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E41" s="3">
         <v>189700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>370600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>240500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>295600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>172900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>206400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>257700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>147200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>173100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>232600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>149700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>56800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>114000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E43" s="3">
         <v>53000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>77800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>48400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>44400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>35700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>14100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>57900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E44" s="3">
         <v>201100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>342600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>247600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>214400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>191100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>282400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>192600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>74000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>68000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>172500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>92400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>74400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>64000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>160700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>88800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>68900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>60600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>148400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>75900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>63700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>93400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E45" s="3">
         <v>24900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>64800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>33000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>25600</v>
       </c>
       <c r="R45" s="3">
         <v>25600</v>
       </c>
       <c r="S45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="T45" s="3">
         <v>20600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>17800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>17700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>109200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E46" s="3">
         <v>468700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>465800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>348200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>381900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>572900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>385500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>448500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>563400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>274900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>378600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>353700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>431600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>303200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>320500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>390200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>244400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>273000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>282300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>359600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>220200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>257400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>251200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>284900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3607,10 +3712,10 @@
         <v>3500</v>
       </c>
       <c r="G47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H47" s="3">
         <v>3100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4600</v>
       </c>
       <c r="I47" s="3">
         <v>4600</v>
@@ -3619,52 +3724,52 @@
         <v>4600</v>
       </c>
       <c r="K47" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="L47" s="3">
         <v>4100</v>
       </c>
       <c r="M47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N47" s="3">
         <v>3100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2800</v>
       </c>
       <c r="O47" s="3">
         <v>2800</v>
       </c>
       <c r="P47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2100</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2200</v>
       </c>
       <c r="T47" s="3">
         <v>2200</v>
       </c>
       <c r="U47" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="V47" s="3">
         <v>2300</v>
       </c>
       <c r="W47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="X47" s="3">
         <v>2400</v>
       </c>
       <c r="Y47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>10</v>
@@ -3675,174 +3780,183 @@
       <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>360200</v>
+      </c>
+      <c r="E48" s="3">
         <v>367600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>371000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>365900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>361000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>361600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>330400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>301500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>284100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>285700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>288400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>235800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>236700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>235500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>239300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>166700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>158200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>160200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>160400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>163300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>153700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>154600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>157500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>161400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>154700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>168700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>294400</v>
+      </c>
+      <c r="E49" s="3">
         <v>356800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>357800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>358900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>360500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>359700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>346300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>347200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>348000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>348700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>349600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>141000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>141200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>141400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>141700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>122200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>122400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>122700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>123100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>123300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>123700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>124200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>156000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
         <v>20300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>998800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1217000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1216200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1094900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1128700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1321300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1089900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1076700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1107300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1222300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>934700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>774400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>748600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>826200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>665000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>606400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>614900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>685500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>540600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>570900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>570400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>648800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>512300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>552500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>539800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>619000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E57" s="3">
         <v>75100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>109300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>105000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>61800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>55300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>19500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>49500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4410,10 +4544,10 @@
         <v>20000</v>
       </c>
       <c r="E58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F58" s="3">
         <v>160000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20000</v>
       </c>
       <c r="G58" s="3">
         <v>20000</v>
@@ -4422,22 +4556,22 @@
         <v>20000</v>
       </c>
       <c r="I58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J58" s="3">
         <v>25000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5000</v>
       </c>
       <c r="O58" s="3">
         <v>5000</v>
@@ -4452,372 +4586,387 @@
         <v>5000</v>
       </c>
       <c r="S58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T58" s="3">
         <v>12200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E59" s="3">
         <v>249200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>195900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>188300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>291700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>184500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>188500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>296800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>150000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>126300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>96800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>103000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>140100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>70900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>91900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>123500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>67000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>90200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>92300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>127000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E60" s="3">
         <v>344300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>419500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>265700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>267600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>420900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>274800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>265900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>303900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>416700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>233400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>180300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>168700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>226700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>135400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>127500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>140600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>203500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>114900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>124800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>120300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>187400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>102400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>125200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>118300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>182300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E61" s="3">
         <v>132800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>138200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>142500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>147200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>151800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>156800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>161500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>166200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>170900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>175500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>87600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>89700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>92000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>83600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>87000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>89600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>92300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>94900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>97500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>99500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>101400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>103300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>105300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E62" s="3">
         <v>179400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>181300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>177300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>180100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>183600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>167900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>140200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>137000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>108900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>109400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>44700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>43700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>42900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>44600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>506800</v>
+      </c>
+      <c r="E66" s="3">
         <v>656500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>738900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>585500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>594900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>756400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>599500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>567600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>607200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>724700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>543100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>374700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>360600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>425300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>335600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>263700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>266000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>329400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>244600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>256000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>248000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>318000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>246500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>270200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>264400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>332200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,82 +5682,85 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>293600</v>
+      </c>
+      <c r="E72" s="3">
         <v>364600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>282100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>315800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>338000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>361400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>273000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>286200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>272900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>271400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>157800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>167500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>157700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>167400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>93300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>108500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>116800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>125100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>57300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>73400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>81700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>90100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>32600</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>10</v>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E76" s="3">
         <v>560500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>477300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>509400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>533800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>565000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>490400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>509100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>497600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>399800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>388000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>400900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>329400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>342700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>348900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>356100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>296000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>314900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>322300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>330700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>265800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>282200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>275400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>286800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44647</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44556</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44283</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44192</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>82500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>88500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>113700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>70700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>62900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>14300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7800</v>
       </c>
       <c r="P83" s="3">
         <v>7800</v>
       </c>
       <c r="Q83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R83" s="3">
         <v>7600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7800</v>
       </c>
       <c r="V83" s="3">
         <v>7800</v>
       </c>
       <c r="W83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="X83" s="3">
         <v>7900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="E89" s="3">
         <v>340000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-146300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-147100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>336000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-150200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-44900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-98400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>407400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-90700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-44800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>274900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-112800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-42600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>249000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-109400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-49600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>236500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-122300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-48800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>244800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-258200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>97100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-146900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>135300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>119400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-129000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E102" s="3">
         <v>180300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-178000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>267300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-169800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-113800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>359600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-229500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>261400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-138700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-51300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>230700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-120200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-59500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>223500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-140600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>93000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-57200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>107200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-21100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>FLWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,409 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44647</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44556</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44192</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>398800</v>
+      </c>
+      <c r="F8" s="3">
         <v>417600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>897900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>303600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>485900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>469600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>943000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>309400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>487000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>474200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>877300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>283800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>418000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>278800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>605600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>187300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>259400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>248400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>571300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>169500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>229900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>238500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>526100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>157300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>239500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>233700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>554600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>250900</v>
+      </c>
+      <c r="F9" s="3">
         <v>277100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>530100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>202100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>322200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>315500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>564600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>183900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>289000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>289500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>479000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>168300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>248500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>171300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>336500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>111100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>154200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>150900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>316500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>101000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>136900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>145100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>290800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>90100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>141200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>140100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>297600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>147900</v>
+      </c>
+      <c r="F10" s="3">
         <v>140500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>367800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>101500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>163700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>154100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>378400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>125500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>198000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>184700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>398300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>115500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>169500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>107500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>269100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>76200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>105200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>97500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>254800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>68500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>93000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>93400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>235300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>67200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>98300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>93600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>257000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1098,102 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F12" s="3">
         <v>14800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>13500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>11600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>11500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>10300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>10200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>10200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>9200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>9700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>9300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>10300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>9800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AF12" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,19 +1278,25 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>64600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1271,14 +1310,14 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1295,32 +1334,32 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>200</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>200</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Y14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>-200</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1331,94 +1370,106 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F15" s="3">
         <v>13300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>14300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12800</v>
       </c>
       <c r="H15" s="3">
         <v>12700</v>
       </c>
       <c r="I15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K15" s="3">
         <v>12600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>10700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>11900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>9200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>7800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>7600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>7100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>7000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>8000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>7800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>7800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>7900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>8700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>8100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>7700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>8500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>9200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AF15" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1497,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>422900</v>
+      </c>
+      <c r="F17" s="3">
         <v>502200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>782800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>345000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>512900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>495800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>827300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>329700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>471700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>474500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>729700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>297200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>405600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>289700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>506100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>207900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>271600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>263000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>476600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>192500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>241300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>251000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>441400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>177000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>250300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>250000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>458000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>188900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-84600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>115100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-41400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>115700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>147600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>12400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>99500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-12200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-14600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>94700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-23000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-11400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>84700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-19700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-16300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>96600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-23100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1715,194 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-600</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>14900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-74500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>125100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-32400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-19800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>129100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>159000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>22500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>107400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-13700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>100000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-15800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-4000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>93200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>11800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-7400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>105700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1888,200 +1967,218 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>1200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-87800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>110800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-45100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-32600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-31500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>116500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>147900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>99600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-21300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-12000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-13300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>92000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-23700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-11800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>83300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>3100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-17100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>94400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-24400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-16800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>28300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-11400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-10400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>28000</v>
       </c>
       <c r="J24" s="3">
         <v>-8100</v>
       </c>
       <c r="K24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>34300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>25400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>23400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-6400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>31500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2263,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-71000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>82500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-33700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-22300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-23400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>88500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>113700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>68600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-17300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-8200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>58500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>8000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>62900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-71000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>82500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-33700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-22300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-23400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>88500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>113700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>74200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>68600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-17300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-8200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>58500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>8000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>62900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2539,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,11 +2595,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2486,20 +2607,20 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>12200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2510,8 +2631,14 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2723,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2815,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>600</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-14900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>82500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-33700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-22300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-23400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>88500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>113700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>74200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>68600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-17300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-8200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>70700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>8000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>62900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3091,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>82500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-33700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-22300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-23400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>88500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>113700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>74200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>68600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-17300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-8200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>70700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>8000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>62900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44647</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44556</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44192</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3318,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3352,102 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>126800</v>
+      </c>
+      <c r="F41" s="3">
         <v>51600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>189700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>31500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>93000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>271100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>173600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>256800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>370600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>240500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>232100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>295600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>34200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>172900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>206400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>257700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>27000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>147200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>173100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>232600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>9100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>149700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>56800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>114000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,360 +3532,390 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F43" s="3">
         <v>36800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>53000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>49000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>23800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>40900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>77800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>30600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>20800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>39100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>72600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>32000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>15200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>26200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>44600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>36100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>19200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>48400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>30700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>12900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>22500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>44400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>35700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>14100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>21500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>57900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>191300</v>
+      </c>
+      <c r="F44" s="3">
         <v>191900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>201100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>342600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>247600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>214400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>191100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>282400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>153900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>122400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>89400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>192600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>97800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>74000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>68000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>172500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>92400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>74400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>64000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>160700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>88800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>68900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>60600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>148400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>75900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>63700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>93400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>191400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F45" s="3">
         <v>39200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>24900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>64800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>45400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>33000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>68600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>30200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>25200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>21300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>23400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>25600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>25600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>20600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>20100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>26000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>24000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>17800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>22000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>26900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>17700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>109200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>19600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>382600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>373100</v>
+      </c>
+      <c r="F46" s="3">
         <v>319500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>468700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>465800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>348200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>381900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>572900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>385500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>448500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>563400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>274900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>378600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>353700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>431600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>268400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>303200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>320500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>390200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>244400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>273000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>282300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>359600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>220200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>257400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>251200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>284900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>268800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="F47" s="3">
         <v>3500</v>
@@ -3715,67 +3924,67 @@
         <v>3500</v>
       </c>
       <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J47" s="3">
         <v>3100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4600</v>
       </c>
       <c r="K47" s="3">
         <v>4600</v>
       </c>
       <c r="L47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N47" s="3">
         <v>4100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2100</v>
       </c>
       <c r="T47" s="3">
         <v>2200</v>
       </c>
       <c r="U47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V47" s="3">
         <v>2200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X47" s="3">
         <v>2300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>2400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>2400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>2700</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>10</v>
@@ -3783,180 +3992,198 @@
       <c r="AD47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>349700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>359300</v>
+      </c>
+      <c r="F48" s="3">
         <v>360200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>367600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>371000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>365900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>361000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>361600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>330400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>301500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>284100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>285700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>288400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>235800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>236700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>235500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>239300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>166700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>158200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>160200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>160400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>163300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>153700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>154600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>157500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>161400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>154700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>168700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>168200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>293300</v>
+      </c>
+      <c r="F49" s="3">
         <v>294400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>356800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>357800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>358900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>360500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>359700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>346300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>347200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>348000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>348700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>349600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>141000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>141200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>141400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>141700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>122200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>122400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>122500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>122200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>122400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>122700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>123100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>123300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>123700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>124200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>156000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>156400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4268,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4360,106 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>20300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>18100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>22200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>22600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>23300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>22600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>20300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>15100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>13400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>12200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>11700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>11300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>9300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>9100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>8600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>10000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>9700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>9400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AF52" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4544,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1051300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1051400</v>
+      </c>
+      <c r="F54" s="3">
         <v>998800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1217000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1216200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1094900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1128700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1321300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1089900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1076700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1107300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1222300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>934700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>774400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>748600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>826200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>665000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>606400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>614900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>685500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>540600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>570900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>570400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>648800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>512300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>552500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>539800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>619000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>602700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4674,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,135 +4708,143 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F57" s="3">
         <v>21800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>75100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>63600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>57400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>58500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>109300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>65400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>57400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>60200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>105000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>45400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>25300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>37300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>61800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>37100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>25700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>25400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>51900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>33200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>41400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>19000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>55300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>27400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>27800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>19500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>49500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>32400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>20000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>160000</v>
       </c>
       <c r="G58" s="3">
         <v>20000</v>
       </c>
       <c r="H58" s="3">
-        <v>20000</v>
+        <v>160000</v>
       </c>
       <c r="I58" s="3">
         <v>20000</v>
       </c>
       <c r="J58" s="3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K58" s="3">
         <v>20000</v>
       </c>
       <c r="L58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N58" s="3">
         <v>17500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>37500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5000</v>
       </c>
       <c r="Q58" s="3">
         <v>5000</v>
@@ -4589,384 +4856,414 @@
         <v>5000</v>
       </c>
       <c r="T58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V58" s="3">
         <v>12200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>11500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>10800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>10100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>9300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>8600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>7900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>7200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>6500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>5800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>146400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>157700</v>
+      </c>
+      <c r="F59" s="3">
         <v>163300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>249200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>195900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>188300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>189100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>291700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>184500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>188500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>226200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>296800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>150500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>150000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>126300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>159900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>93300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>96800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>103000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>140100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>70900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>73300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>91900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>123500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>67000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>90200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>92300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>127000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>220300</v>
+      </c>
+      <c r="F60" s="3">
         <v>205100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>344300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>419500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>265700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>267600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>420900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>274800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>265900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>303900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>416700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>233400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>180300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>168700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>226700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>135400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>127500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>140600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>203500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>114900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>124800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>120300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>187400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>102400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>125200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>118300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>182300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>186400</v>
+      </c>
+      <c r="F61" s="3">
         <v>128100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>132800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>138200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>142500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>147200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>151800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>156800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>161500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>166200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>170900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>175500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>87600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>88600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>89700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>90800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>92000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>83600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>87000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>89600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>92300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>94900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>97500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>99500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>101400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>103300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>105300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AF61" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>172900</v>
+      </c>
+      <c r="F62" s="3">
         <v>173600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>179400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>181300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>177300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>180100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>183600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>167900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>140200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>137100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>137000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>134200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>106800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>103300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>108900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>109400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>44300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>41800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>38900</v>
-      </c>
-      <c r="V62" s="3">
-        <v>40100</v>
       </c>
       <c r="W62" s="3">
         <v>38900</v>
       </c>
       <c r="X62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="Z62" s="3">
         <v>32800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>33100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>44700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>43700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>42900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>44600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5348,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5440,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5532,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>608500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>579600</v>
+      </c>
+      <c r="F66" s="3">
         <v>506800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>656500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>738900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>585500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>594900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>756400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>599500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>567600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>607200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>724700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>543100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>374700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>360600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>425300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>335600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>263700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>266000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>329400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>244600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>256000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>248000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>318000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>246500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>270200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>264400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>332200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>376900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5662,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5750,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5842,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5934,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6026,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>239800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F72" s="3">
         <v>293600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>364600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>282100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>315800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>338000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>361400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>273000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>286200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>272900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>271400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>157800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>167500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>157700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>167400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>93300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>108500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>116800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>125100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>57300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>73400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>81700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>90100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>19400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>32600</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6210,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6302,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6394,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>442900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>471800</v>
+      </c>
+      <c r="F76" s="3">
         <v>492000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>560500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>477300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>509400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>533800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>565000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>490400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>509100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>497600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>391500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>399800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>388000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>400900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>329400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>342700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>348900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>356100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>296000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>314900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>322300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>330700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>265800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>282200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>275400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>286800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6578,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44647</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44556</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44192</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>82500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-33700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-22300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-23400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>88500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>113700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>74200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>68600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-17300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-8200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>70700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>8000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-11100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>62900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-15800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6805,102 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12800</v>
       </c>
       <c r="H83" s="3">
         <v>12700</v>
       </c>
       <c r="I83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>7900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>8700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>8100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>7700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>8500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>9200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AF83" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6985,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7077,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7169,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7261,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7353,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-120600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>340000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-146300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-147100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>336000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-150200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-44900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-98400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>407400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-90700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>274900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-112800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-18900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-42600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>249000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-109400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-6200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-49600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>236500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-122300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-48800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>244800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-134800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7483,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-15300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-21500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-28400</v>
       </c>
       <c r="L91" s="3">
         <v>-11100</v>
       </c>
       <c r="M91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-17500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-14900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-8600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7663,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7755,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-19600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-16700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-42300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-28900</v>
       </c>
       <c r="L94" s="3">
         <v>-11100</v>
       </c>
       <c r="M94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-258200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-12400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-24900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-15700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-17500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-12500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>97100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-8600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7885,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7973,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8065,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8157,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8249,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-146900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>135300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-26500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-38100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>119400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-11500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-129000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8433,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>75200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-138100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>180300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-61600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-178000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>267300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-169800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-83200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-113800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>359600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-229500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-63400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>261400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-138700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-33500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-51300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>230700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-120200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-25800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-59500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>223500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-140600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>93000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-57200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>107200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-21100</v>
       </c>
     </row>
